--- a/biology/Botanique/Veloporphyrellus_pantoleucus/Veloporphyrellus_pantoleucus.xlsx
+++ b/biology/Botanique/Veloporphyrellus_pantoleucus/Veloporphyrellus_pantoleucus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veloporphyrellus pantoleucus, la Porphyrelle voilée , est une espèce de champignons du genre Veloporphyrellus de la famille des Boletaceae, proche des genres Tylopilus et Porphyrellus, et montrant la morphologie d'un petit bolet. Cette espèce  pousse au Costa Rica.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veloporphyrellus Gómez &amp; Singer 1984 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veloporphyrellus Gómez &amp; Singer 1984 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporophore : de 34 mm à 48 mm
 Cuticule sèche, tomenteuse, la pigmentation fait défaut.
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêt de magnolia, au Costa Rica. Zone tropicale montagneuse, 1800m à 2000 m d'altitude.
 Très rares, ses caractéristiques sont encore peu connues.
